--- a/backend/clearingfeed/src/main/resources/archiveFolder/clearingfeed (1).xlsx
+++ b/backend/clearingfeed/src/main/resources/archiveFolder/clearingfeed (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\citibridge\citibridge\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DC0F9C-018A-4D53-8411-16530722468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EEA001-8C52-4623-AB71-AC007FF79F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{74449CC9-AAE2-4CC1-9901-DAC8D6742FEE}"/>
   </bookViews>
@@ -318,22 +318,22 @@
     <t>875691.36</t>
   </si>
   <si>
-    <t>30/05/2023</t>
-  </si>
-  <si>
     <t>26484016912</t>
   </si>
   <si>
-    <t>2023/05/31</t>
-  </si>
-  <si>
     <t>31/05/2023</t>
   </si>
   <si>
     <t>01/06/2023</t>
   </si>
   <si>
-    <t>05/31/2023</t>
+    <t>2023/06/01</t>
+  </si>
+  <si>
+    <t>02/06/2023</t>
+  </si>
+  <si>
+    <t>06/01/2023</t>
   </si>
 </sst>
 </file>
@@ -732,7 +732,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="122" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B1" sqref="B1:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -750,7 +750,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>22</v>
@@ -775,7 +775,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
@@ -800,7 +800,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>24</v>
@@ -825,7 +825,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>25</v>
@@ -850,7 +850,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>26</v>
@@ -875,7 +875,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>22</v>
@@ -900,7 +900,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>37</v>
@@ -925,7 +925,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>50</v>
@@ -949,7 +949,7 @@
         <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>47</v>
@@ -973,7 +973,7 @@
         <v>43</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>48</v>
@@ -997,7 +997,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>49</v>
@@ -1021,7 +1021,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>58</v>
@@ -1030,7 +1030,7 @@
         <v>74</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>81</v>
@@ -1092,8 +1092,8 @@
       <c r="A15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>100</v>
+      <c r="B15" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>61</v>

--- a/backend/clearingfeed/src/main/resources/archiveFolder/clearingfeed (1).xlsx
+++ b/backend/clearingfeed/src/main/resources/archiveFolder/clearingfeed (1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\citibridge\citibridge\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EEA001-8C52-4623-AB71-AC007FF79F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA0FD48-0AAC-4EAF-A62C-62AE510466E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{74449CC9-AAE2-4CC1-9901-DAC8D6742FEE}"/>
   </bookViews>
@@ -321,19 +321,19 @@
     <t>26484016912</t>
   </si>
   <si>
-    <t>31/05/2023</t>
-  </si>
-  <si>
-    <t>01/06/2023</t>
-  </si>
-  <si>
-    <t>2023/06/01</t>
-  </si>
-  <si>
-    <t>02/06/2023</t>
-  </si>
-  <si>
-    <t>06/01/2023</t>
+    <t>17/06/2023</t>
+  </si>
+  <si>
+    <t>2023/06/17</t>
+  </si>
+  <si>
+    <t>18/06/2023</t>
+  </si>
+  <si>
+    <t>06/17/2023</t>
+  </si>
+  <si>
+    <t>19/07/2023</t>
   </si>
 </sst>
 </file>
@@ -732,7 +732,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="122" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -750,7 +750,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>22</v>
@@ -775,7 +775,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
@@ -800,7 +800,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>24</v>
@@ -825,7 +825,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>25</v>
@@ -850,7 +850,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>26</v>
@@ -875,7 +875,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>22</v>
@@ -899,8 +899,8 @@
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>99</v>
+      <c r="B7" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>37</v>
@@ -924,8 +924,8 @@
       <c r="A8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>99</v>
+      <c r="B8" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>50</v>
@@ -948,8 +948,8 @@
       <c r="A9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>99</v>
+      <c r="B9" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>47</v>
@@ -972,8 +972,8 @@
       <c r="A10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>99</v>
+      <c r="B10" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>48</v>
@@ -996,8 +996,8 @@
       <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>99</v>
+      <c r="B11" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>49</v>
@@ -1021,7 +1021,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>58</v>
@@ -1045,7 +1045,7 @@
         <v>42</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>59</v>
@@ -1069,7 +1069,7 @@
         <v>44</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>60</v>
@@ -1093,7 +1093,7 @@
         <v>45</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>61</v>
@@ -1117,7 +1117,7 @@
         <v>46</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>62</v>
@@ -1141,7 +1141,7 @@
         <v>67</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>69</v>

--- a/backend/clearingfeed/src/main/resources/archiveFolder/clearingfeed (1).xlsx
+++ b/backend/clearingfeed/src/main/resources/archiveFolder/clearingfeed (1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\citibridge\citibridge\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA0FD48-0AAC-4EAF-A62C-62AE510466E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2407CA97-64F0-47FE-979A-F8F3A85FE734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{74449CC9-AAE2-4CC1-9901-DAC8D6742FEE}"/>
   </bookViews>
@@ -324,16 +324,16 @@
     <t>17/06/2023</t>
   </si>
   <si>
-    <t>2023/06/17</t>
-  </si>
-  <si>
     <t>18/06/2023</t>
   </si>
   <si>
-    <t>06/17/2023</t>
-  </si>
-  <si>
-    <t>19/07/2023</t>
+    <t>01/08/2023</t>
+  </si>
+  <si>
+    <t>2023/08/01</t>
+  </si>
+  <si>
+    <t>08/01/2023</t>
   </si>
 </sst>
 </file>
@@ -732,16 +732,17 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="122" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.453125" customWidth="1"/>
     <col min="2" max="2" width="21.08984375" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="6" width="13.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.90625" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" customWidth="1"/>
     <col min="7" max="7" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -750,7 +751,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>22</v>
@@ -775,7 +776,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
@@ -800,7 +801,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>24</v>
@@ -825,7 +826,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>25</v>
@@ -850,7 +851,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>26</v>
@@ -875,7 +876,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>22</v>
@@ -900,7 +901,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>37</v>
@@ -925,7 +926,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>50</v>
@@ -973,7 +974,7 @@
         <v>43</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>48</v>
@@ -997,7 +998,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>49</v>
@@ -1021,7 +1022,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>58</v>
@@ -1045,7 +1046,7 @@
         <v>42</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>59</v>
@@ -1069,7 +1070,7 @@
         <v>44</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>60</v>

--- a/backend/clearingfeed/src/main/resources/archiveFolder/clearingfeed (1).xlsx
+++ b/backend/clearingfeed/src/main/resources/archiveFolder/clearingfeed (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\citibridge\citibridge\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2407CA97-64F0-47FE-979A-F8F3A85FE734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB84B38-0743-4F09-AE6D-6C363D439B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{74449CC9-AAE2-4CC1-9901-DAC8D6742FEE}"/>
   </bookViews>
@@ -327,13 +327,13 @@
     <t>18/06/2023</t>
   </si>
   <si>
-    <t>01/08/2023</t>
-  </si>
-  <si>
-    <t>2023/08/01</t>
-  </si>
-  <si>
-    <t>08/01/2023</t>
+    <t>03/08/2023</t>
+  </si>
+  <si>
+    <t>2023/08/03</t>
+  </si>
+  <si>
+    <t>08/03/2023</t>
   </si>
 </sst>
 </file>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7BB000-4A30-4982-86D3-BD9707B3B4E1}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="122" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1117,7 +1117,7 @@
       <c r="A16" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>100</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -1141,7 +1141,7 @@
       <c r="A17" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>100</v>
       </c>
       <c r="C17" s="8" t="s">

--- a/backend/clearingfeed/src/main/resources/archiveFolder/clearingfeed (1).xlsx
+++ b/backend/clearingfeed/src/main/resources/archiveFolder/clearingfeed (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\citibridge\citibridge\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB84B38-0743-4F09-AE6D-6C363D439B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0DDF7B-4E9F-4F6C-BB04-2D8DDB83C611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{74449CC9-AAE2-4CC1-9901-DAC8D6742FEE}"/>
   </bookViews>
@@ -327,13 +327,13 @@
     <t>18/06/2023</t>
   </si>
   <si>
-    <t>03/08/2023</t>
-  </si>
-  <si>
-    <t>2023/08/03</t>
-  </si>
-  <si>
-    <t>08/03/2023</t>
+    <t>06/08/2023</t>
+  </si>
+  <si>
+    <t>2023/08/06</t>
+  </si>
+  <si>
+    <t>08/06/2023</t>
   </si>
 </sst>
 </file>
@@ -732,7 +732,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="122" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B16" sqref="B16:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/backend/clearingfeed/src/main/resources/archiveFolder/clearingfeed (1).xlsx
+++ b/backend/clearingfeed/src/main/resources/archiveFolder/clearingfeed (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\citibridge\citibridge\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0DDF7B-4E9F-4F6C-BB04-2D8DDB83C611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E748A15B-0179-45E2-9849-7E7EFD1DE02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{74449CC9-AAE2-4CC1-9901-DAC8D6742FEE}"/>
   </bookViews>

--- a/backend/clearingfeed/src/main/resources/archiveFolder/clearingfeed (1).xlsx
+++ b/backend/clearingfeed/src/main/resources/archiveFolder/clearingfeed (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\citibridge\citibridge\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E748A15B-0179-45E2-9849-7E7EFD1DE02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94230237-4999-4C23-AF8F-69A8BCF68168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{74449CC9-AAE2-4CC1-9901-DAC8D6742FEE}"/>
   </bookViews>
@@ -327,13 +327,13 @@
     <t>18/06/2023</t>
   </si>
   <si>
-    <t>06/08/2023</t>
-  </si>
-  <si>
-    <t>2023/08/06</t>
-  </si>
-  <si>
-    <t>08/06/2023</t>
+    <t>07/08/2023</t>
+  </si>
+  <si>
+    <t>2023/08/07</t>
+  </si>
+  <si>
+    <t>08/07/2023</t>
   </si>
 </sst>
 </file>

--- a/backend/clearingfeed/src/main/resources/archiveFolder/clearingfeed (1).xlsx
+++ b/backend/clearingfeed/src/main/resources/archiveFolder/clearingfeed (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\citibridge\citibridge\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94230237-4999-4C23-AF8F-69A8BCF68168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCE6734-DB97-42D0-B9C7-E36B939B779C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{74449CC9-AAE2-4CC1-9901-DAC8D6742FEE}"/>
   </bookViews>
@@ -327,13 +327,13 @@
     <t>18/06/2023</t>
   </si>
   <si>
-    <t>07/08/2023</t>
-  </si>
-  <si>
-    <t>2023/08/07</t>
-  </si>
-  <si>
     <t>08/07/2023</t>
+  </si>
+  <si>
+    <t>08/08/2023</t>
+  </si>
+  <si>
+    <t>2023/08/08</t>
   </si>
 </sst>
 </file>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7BB000-4A30-4982-86D3-BD9707B3B4E1}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="122" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="122" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -751,7 +751,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>22</v>
@@ -776,7 +776,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
@@ -801,7 +801,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>24</v>
@@ -826,7 +826,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>25</v>
@@ -851,7 +851,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>26</v>
@@ -876,7 +876,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>22</v>
@@ -901,7 +901,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>37</v>
@@ -926,7 +926,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>50</v>
@@ -974,7 +974,7 @@
         <v>43</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>48</v>
@@ -998,7 +998,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>49</v>
@@ -1022,7 +1022,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>58</v>
@@ -1070,7 +1070,7 @@
         <v>44</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>60</v>
@@ -1118,7 +1118,7 @@
         <v>46</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>62</v>
@@ -1142,7 +1142,7 @@
         <v>67</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>69</v>
